--- a/data/output/FV2304_FV2210/UTILMD/11191.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11191.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="322">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="322">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1081,6 +1081,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U209" totalsRowShown="0">
+  <autoFilter ref="A1:U209"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,7 +1400,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10820,5 +10853,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11191.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11191.xlsx
@@ -2110,7 +2110,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4292,7 +4292,7 @@
         <v>302</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4444,7 +4444,7 @@
         <v>303</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4824,7 +4824,7 @@
         <v>302</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5112,7 +5112,7 @@
         <v>305</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5736,7 +5736,7 @@
         <v>307</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6036,7 +6036,7 @@
         <v>309</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6368,7 +6368,7 @@
         <v>310</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6740,7 +6740,7 @@
         <v>302</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7418,7 +7418,7 @@
         <v>311</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8060,7 +8060,7 @@
         <v>313</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8158,7 +8158,7 @@
         <v>314</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9164,7 +9164,7 @@
         <v>316</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9452,7 +9452,7 @@
         <v>317</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10404,7 +10404,7 @@
         <v>319</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11410,7 +11410,7 @@
         <v>321</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N207" s="2"/>
